--- a/metadata/pk_spec.xlsx
+++ b/metadata/pk_spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\__transfer\admiral_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff.dickinson\Documents\GitHub\examples\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3CF3A9-0BCC-41B5-BFEB-F625BA483127}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F740EE8-210D-40A4-8735-52E2CA73AFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="-105" windowWidth="19425" windowHeight="10995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Documents!$A$1:$C$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Methods!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ValueLevel!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$P$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$P$235</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WhereClauses!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="572">
   <si>
     <t>Attribute</t>
   </si>
@@ -1642,6 +1642,141 @@
   </si>
   <si>
     <t>STUDYID, USUBJID, PARAMCD, AVISITN, AFRLT, EVID, CMT</t>
+  </si>
+  <si>
+    <t>ADER</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>inte+R:R[26]ger</t>
+  </si>
+  <si>
+    <t>Subject Identifier (N)</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>ETHNICN</t>
+  </si>
+  <si>
+    <t>Ethnicity (N)</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>Cohort (C)</t>
+  </si>
+  <si>
+    <t>Planned Arm (N)</t>
+  </si>
+  <si>
+    <t>ACTARMN</t>
+  </si>
+  <si>
+    <t>Actual Arm (N)</t>
+  </si>
+  <si>
+    <t>Dosage Form</t>
+  </si>
+  <si>
+    <t>Dosage Form (N)</t>
+  </si>
+  <si>
+    <t>Country Name</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Overall Survival (Days)</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>OSIND</t>
+  </si>
+  <si>
+    <t>Overall Survival Event Indicator</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>Progression-Free Survival (Days)</t>
+  </si>
+  <si>
+    <t>PFSIND</t>
+  </si>
+  <si>
+    <t>PFS Event Indicator</t>
+  </si>
+  <si>
+    <t>RSD</t>
+  </si>
+  <si>
+    <t>Duration of Response</t>
+  </si>
+  <si>
+    <t>RSDIND</t>
+  </si>
+  <si>
+    <t>Duration of Response Indicator</t>
+  </si>
+  <si>
+    <t>BOR</t>
+  </si>
+  <si>
+    <t>Best Overall Response</t>
+  </si>
+  <si>
+    <t>BORC</t>
+  </si>
+  <si>
+    <t>Best Overall Response (C)</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Baseline Weight (kg)</t>
+  </si>
+  <si>
+    <t>Baseline Height (cm)</t>
+  </si>
+  <si>
+    <t>Baseline BMI (kg/m^2)</t>
+  </si>
+  <si>
+    <t>Baseline BSA (m^2)</t>
+  </si>
+  <si>
+    <t>Baseline Serum Creatinine (mg/dL)</t>
+  </si>
+  <si>
+    <t>Baseline Creatinine Clearance (mL/min)</t>
+  </si>
+  <si>
+    <t>Baseline eGFR (mL/min/1.73m^2)</t>
+  </si>
+  <si>
+    <t>Baseline ALT (U/L)</t>
+  </si>
+  <si>
+    <t>Baseline AST (U/L)</t>
+  </si>
+  <si>
+    <t>Baseline Total Bilirubin (mg/dL)</t>
+  </si>
+  <si>
+    <t>Exposure Response Analysis Data</t>
+  </si>
+  <si>
+    <t>STUDYID, USUBJID</t>
   </si>
 </sst>
 </file>
@@ -1731,10 +1866,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4" applyAlignment="1">
@@ -1777,11 +1912,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1800,11 +1934,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1830,9 +1970,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1870,9 +2010,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1905,26 +2045,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1957,26 +2080,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2200,7 +2306,7 @@
       <c r="A5" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>401</v>
       </c>
     </row>
@@ -2208,7 +2314,7 @@
       <c r="A6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>400</v>
       </c>
     </row>
@@ -2216,13 +2322,16 @@
       <c r="A7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K737373 Public</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2278,16 +2387,19 @@
   </sheetData>
   <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K737373 Public</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,7 +2416,7 @@
     <col min="10" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -2333,68 +2445,85 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>188</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>392</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>393</v>
       </c>
       <c r="H2"/>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>190</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>392</v>
       </c>
       <c r="D3" s="11"/>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>393</v>
       </c>
       <c r="H3"/>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>392</v>
+      </c>
       <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -2405,7 +2534,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -2416,7 +2545,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2427,7 +2556,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -2438,7 +2567,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -2452,23 +2581,26 @@
   </sheetData>
   <autoFilter ref="A1:I9" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K737373 Public</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R230"/>
+  <dimension ref="A1:P257"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D114" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D202" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D121" sqref="D121"/>
+      <selection pane="bottomRight" activeCell="N216" sqref="N216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="28" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="15" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="15" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" style="15" customWidth="1"/>
@@ -2486,8 +2618,8 @@
     <col min="17" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2536,258 +2668,247 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+    <row r="2" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="17">
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2">
         <v>21</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+    <row r="3" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="E3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+    <row r="4" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4">
         <v>30</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+    <row r="5" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="17">
-        <v>8</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17" t="s">
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
         <v>192</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-    </row>
-    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+    </row>
+    <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="B6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+    <row r="7" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" t="s">
         <v>194</v>
       </c>
-      <c r="F7" s="17">
-        <v>8</v>
-      </c>
-      <c r="K7" s="17" t="s">
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+    <row r="8" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="B8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="17" t="s">
+    <row r="9" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" t="s">
         <v>196</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="E9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9">
         <v>20</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+    <row r="10" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="17">
+      <c r="E10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+    <row r="11" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="17">
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11">
         <v>60</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+    <row r="12" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" t="s">
         <v>188</v>
       </c>
       <c r="C12" t="s">
@@ -2806,11 +2927,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+    <row r="13" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" t="s">
         <v>188</v>
       </c>
       <c r="C13" t="s">
@@ -2826,11 +2947,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+    <row r="14" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" t="s">
         <v>188</v>
       </c>
       <c r="C14" t="s">
@@ -2845,30 +2966,21 @@
       <c r="F14">
         <v>19</v>
       </c>
-      <c r="G14"/>
-      <c r="H14"/>
       <c r="I14" t="s">
         <v>50</v>
       </c>
-      <c r="J14"/>
       <c r="K14" t="s">
         <v>192</v>
       </c>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
       <c r="O14" t="s">
         <v>200</v>
       </c>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-    </row>
-    <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+    </row>
+    <row r="15" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" t="s">
         <v>188</v>
       </c>
       <c r="C15" t="s">
@@ -2890,11 +3002,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
+    <row r="16" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" t="s">
         <v>188</v>
       </c>
       <c r="C16" t="s">
@@ -2916,11 +3028,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
+    <row r="17" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" t="s">
         <v>188</v>
       </c>
       <c r="C17" t="s">
@@ -2942,11 +3054,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
+    <row r="18" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" t="s">
         <v>188</v>
       </c>
       <c r="C18" t="s">
@@ -2968,11 +3080,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
+    <row r="19" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" t="s">
         <v>188</v>
       </c>
       <c r="C19" t="s">
@@ -2987,28 +3099,18 @@
       <c r="F19">
         <v>19</v>
       </c>
-      <c r="G19"/>
-      <c r="H19"/>
       <c r="I19" t="s">
         <v>50</v>
       </c>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
       <c r="O19" t="s">
         <v>200</v>
       </c>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-    </row>
-    <row r="20" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
+    </row>
+    <row r="20" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" t="s">
         <v>188</v>
       </c>
       <c r="C20" t="s">
@@ -3023,28 +3125,18 @@
       <c r="F20">
         <v>19</v>
       </c>
-      <c r="G20"/>
-      <c r="H20"/>
       <c r="I20" t="s">
         <v>50</v>
       </c>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
       <c r="O20" t="s">
         <v>201</v>
       </c>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-    </row>
-    <row r="21" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
+    </row>
+    <row r="21" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" t="s">
         <v>188</v>
       </c>
       <c r="C21" t="s">
@@ -3059,426 +3151,415 @@
       <c r="F21">
         <v>8</v>
       </c>
-      <c r="G21"/>
-      <c r="H21"/>
       <c r="I21" t="s">
         <v>50</v>
       </c>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
       <c r="O21" t="s">
         <v>201</v>
       </c>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-    </row>
-    <row r="22" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
+    </row>
+    <row r="22" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="17" t="s">
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" t="s">
         <v>202</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" t="s">
         <v>181</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="17">
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22">
         <v>2</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
+    <row r="23" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" s="17">
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23">
         <v>200</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="K23" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
+    <row r="24" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="B24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="17">
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24">
         <v>20</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="K24" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
+    <row r="25" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="17" t="s">
+      <c r="B25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="17">
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25">
         <v>200</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
+    <row r="26" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C26" s="17" t="s">
+      <c r="B26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D26" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="17">
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26">
         <v>20</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K26" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
+    <row r="27" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C27" s="17" t="s">
+      <c r="B27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" t="s">
         <v>203</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" t="s">
         <v>194</v>
       </c>
-      <c r="F27" s="17">
-        <v>8</v>
-      </c>
-      <c r="H27" s="17" t="s">
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+    <row r="28" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="17" t="s">
+      <c r="B28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" t="s">
         <v>206</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" t="s">
         <v>207</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="17">
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28">
         <v>40</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+    <row r="29" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29" s="17" t="s">
+      <c r="B29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" t="s">
         <v>208</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" t="s">
         <v>209</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="17">
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29">
         <v>40</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+    <row r="30" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="17" t="s">
+      <c r="B30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" t="s">
         <v>210</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" t="s">
         <v>211</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" t="s">
         <v>194</v>
       </c>
-      <c r="F30" s="17">
-        <v>8</v>
-      </c>
-      <c r="H30" s="17" t="s">
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="H30" t="s">
         <v>212</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="K30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+    <row r="31" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="17" t="s">
+      <c r="B31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" t="s">
         <v>213</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" t="s">
         <v>214</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" t="s">
         <v>194</v>
       </c>
-      <c r="F31" s="17">
-        <v>8</v>
-      </c>
-      <c r="H31" s="17" t="s">
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="K31" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
+    <row r="32" spans="1:15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="17" t="s">
+      <c r="B32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" t="s">
         <v>215</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" t="s">
         <v>216</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="17">
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
+    <row r="33" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" s="17" t="s">
+      <c r="B33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" t="s">
         <v>217</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" t="s">
         <v>218</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="17">
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
+    <row r="34" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="17" t="s">
+      <c r="B34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" t="s">
         <v>219</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" t="s">
         <v>220</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" t="s">
         <v>194</v>
       </c>
-      <c r="F34" s="17">
-        <v>8</v>
-      </c>
-      <c r="H34" s="17" t="s">
+      <c r="F34">
+        <v>8</v>
+      </c>
+      <c r="H34" t="s">
         <v>205</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="K34" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+    <row r="35" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C35" s="17" t="s">
+      <c r="B35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" t="s">
         <v>221</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" t="s">
         <v>222</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" t="s">
         <v>194</v>
       </c>
-      <c r="F35" s="17">
-        <v>8</v>
-      </c>
-      <c r="H35" s="17" t="s">
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
         <v>205</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="K35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
+    <row r="36" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C36" s="17" t="s">
+      <c r="B36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="17">
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36">
         <v>2</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="K36" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
+    <row r="37" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C37" s="17" t="s">
+      <c r="B37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" t="s">
         <v>223</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="17">
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37">
         <v>19</v>
       </c>
-      <c r="H37"/>
-      <c r="K37" s="17" t="s">
+      <c r="K37" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
+    <row r="38" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="17" t="s">
+      <c r="B38" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" t="s">
         <v>224</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" t="s">
         <v>225</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" t="s">
         <v>194</v>
       </c>
-      <c r="F38" s="17">
-        <v>8</v>
-      </c>
-      <c r="H38" s="17" t="s">
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
+    <row r="39" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" t="s">
         <v>188</v>
       </c>
       <c r="C39" t="s">
@@ -3494,77 +3575,77 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
+    <row r="40" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C40" s="17" t="s">
+      <c r="B40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C40" t="s">
         <v>228</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" t="s">
         <v>229</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="17">
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40">
         <v>80</v>
       </c>
-      <c r="K40" s="17" t="s">
+      <c r="K40" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
+    <row r="41" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="17" t="s">
+      <c r="B41" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" t="s">
         <v>230</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" t="s">
         <v>231</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" t="s">
         <v>194</v>
       </c>
-      <c r="F41" s="17">
-        <v>8</v>
-      </c>
-      <c r="K41" s="17" t="s">
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="K41" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
+    <row r="42" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C42" s="17" t="s">
+      <c r="B42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" t="s">
         <v>232</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" t="s">
         <v>233</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" t="s">
         <v>194</v>
       </c>
-      <c r="F42" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17">
+      <c r="F42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" t="s">
         <v>188</v>
       </c>
       <c r="C43" t="s">
@@ -3579,203 +3660,193 @@
       <c r="F43">
         <v>8</v>
       </c>
-      <c r="G43"/>
-      <c r="H43" s="17" t="s">
+      <c r="H43" t="s">
         <v>205</v>
       </c>
-      <c r="I43"/>
-      <c r="J43"/>
       <c r="K43" t="s">
         <v>114</v>
       </c>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
-    </row>
-    <row r="44" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+    </row>
+    <row r="44" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C44" s="17" t="s">
+      <c r="B44" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" t="s">
         <v>236</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" t="s">
         <v>237</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44" s="17">
+      <c r="E44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17">
+    <row r="45" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C45" s="17" t="s">
+      <c r="B45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" t="s">
         <v>238</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" t="s">
         <v>239</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="17">
+      <c r="E45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17">
+    <row r="46" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C46" s="17" t="s">
+      <c r="B46" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" t="s">
         <v>240</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" t="s">
         <v>241</v>
       </c>
-      <c r="E46" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="17">
+      <c r="E46" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17">
+    <row r="47" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C47" s="17" t="s">
+      <c r="B47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" t="s">
         <v>242</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" t="s">
         <v>243</v>
       </c>
-      <c r="E47" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="17">
+      <c r="E47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17">
+    <row r="48" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="17" t="s">
+      <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" t="s">
         <v>244</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" t="s">
         <v>245</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" t="s">
         <v>194</v>
       </c>
-      <c r="F48" s="17">
-        <v>8</v>
-      </c>
-      <c r="H48" s="17" t="s">
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="H48" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17">
+    <row r="49" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" s="17" t="s">
+      <c r="B49" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" t="s">
         <v>246</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" t="s">
         <v>247</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" t="s">
         <v>194</v>
       </c>
-      <c r="F49" s="17">
-        <v>8</v>
-      </c>
-      <c r="H49" s="17" t="s">
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="H49" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17">
+    <row r="50" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="17" t="s">
+      <c r="B50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" t="s">
         <v>248</v>
       </c>
-      <c r="D50" s="17" t="s">
+      <c r="D50" t="s">
         <v>249</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" t="s">
         <v>194</v>
       </c>
-      <c r="F50" s="17">
-        <v>8</v>
-      </c>
-      <c r="H50" s="17" t="s">
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="H50" t="s">
         <v>205</v>
       </c>
-      <c r="K50" s="17" t="s">
+      <c r="K50" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
+    <row r="51" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="17" t="s">
+      <c r="B51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" t="s">
         <v>250</v>
       </c>
-      <c r="D51" s="17" t="s">
+      <c r="D51" t="s">
         <v>251</v>
       </c>
-      <c r="E51" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="17">
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51">
         <v>200</v>
       </c>
-      <c r="K51" s="17" t="s">
+      <c r="K51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17">
+    <row r="52" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" t="s">
         <v>188</v>
       </c>
       <c r="C52" t="s">
@@ -3790,38 +3861,38 @@
       <c r="F52">
         <v>200</v>
       </c>
-      <c r="J52" s="17" t="s">
+      <c r="J52" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17">
+    <row r="53" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="17" t="s">
+      <c r="B53" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" t="s">
         <v>254</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" t="s">
         <v>255</v>
       </c>
-      <c r="E53" s="17" t="s">
+      <c r="E53" t="s">
         <v>194</v>
       </c>
-      <c r="F53" s="17">
-        <v>8</v>
-      </c>
-      <c r="J53" s="17" t="s">
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="J53" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17">
+    <row r="54" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" t="s">
         <v>188</v>
       </c>
       <c r="C54" t="s">
@@ -3837,349 +3908,349 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="17">
+    <row r="55" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" s="17" t="s">
+      <c r="B55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C55" t="s">
         <v>258</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" t="s">
         <v>259</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" t="s">
         <v>194</v>
       </c>
-      <c r="F55" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17">
+      <c r="F55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C56" s="17" t="s">
+      <c r="B56" t="s">
+        <v>188</v>
+      </c>
+      <c r="C56" t="s">
         <v>260</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" t="s">
         <v>261</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" t="s">
         <v>194</v>
       </c>
-      <c r="F56" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17">
+      <c r="F56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C57" s="17" t="s">
+      <c r="B57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" t="s">
         <v>262</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" t="s">
         <v>263</v>
       </c>
-      <c r="E57" s="17" t="s">
+      <c r="E57" t="s">
         <v>194</v>
       </c>
-      <c r="F57" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17">
+      <c r="F57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="17" t="s">
+      <c r="B58" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" t="s">
         <v>264</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" t="s">
         <v>265</v>
       </c>
-      <c r="E58" s="17" t="s">
+      <c r="E58" t="s">
         <v>194</v>
       </c>
-      <c r="F58" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="17">
+      <c r="F58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C59" s="17" t="s">
+      <c r="B59" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" t="s">
         <v>266</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" t="s">
         <v>267</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" t="s">
         <v>194</v>
       </c>
-      <c r="F59" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17">
+      <c r="F59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C60" s="17" t="s">
+      <c r="B60" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" t="s">
         <v>268</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" t="s">
         <v>269</v>
       </c>
-      <c r="E60" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F60" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="17">
+      <c r="E60" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C61" s="17" t="s">
+      <c r="B61" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" t="s">
         <v>270</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" t="s">
         <v>271</v>
       </c>
-      <c r="E61" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F61" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="17">
+      <c r="E61" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C62" s="17" t="s">
+      <c r="B62" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" t="s">
         <v>272</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" t="s">
         <v>273</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" t="s">
         <v>194</v>
       </c>
-      <c r="F62" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="17">
+      <c r="F62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C63" s="17" t="s">
+      <c r="B63" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" t="s">
         <v>274</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" t="s">
         <v>275</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" t="s">
         <v>194</v>
       </c>
-      <c r="F63" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="17">
+      <c r="F63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="17" t="s">
+      <c r="B64" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" t="s">
         <v>276</v>
       </c>
-      <c r="D64" s="17" t="s">
+      <c r="D64" t="s">
         <v>85</v>
       </c>
-      <c r="E64" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F64" s="17">
+      <c r="E64" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="17">
+    <row r="65" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C65" s="17" t="s">
+      <c r="B65" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" t="s">
         <v>277</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D65" t="s">
         <v>278</v>
       </c>
-      <c r="E65" s="17" t="s">
+      <c r="E65" t="s">
         <v>194</v>
       </c>
-      <c r="F65" s="17">
-        <v>8</v>
-      </c>
-      <c r="H65" s="17" t="s">
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="H65" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="17">
+    <row r="66" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" s="17" t="s">
+      <c r="B66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" t="s">
         <v>279</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" t="s">
         <v>280</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" t="s">
         <v>194</v>
       </c>
-      <c r="F66" s="17">
-        <v>8</v>
-      </c>
-      <c r="H66" s="17" t="s">
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="H66" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="17">
+    <row r="67" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="17" t="s">
+      <c r="B67" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" t="s">
         <v>281</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" t="s">
         <v>282</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" t="s">
         <v>194</v>
       </c>
-      <c r="F67" s="17">
-        <v>8</v>
-      </c>
-      <c r="H67" s="17" t="s">
+      <c r="F67">
+        <v>8</v>
+      </c>
+      <c r="H67" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="17">
+    <row r="68" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" s="17" t="s">
+      <c r="B68" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" t="s">
         <v>283</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" t="s">
         <v>284</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E68" t="s">
         <v>194</v>
       </c>
-      <c r="F68" s="17">
-        <v>8</v>
-      </c>
-      <c r="H68" s="17" t="s">
+      <c r="F68">
+        <v>8</v>
+      </c>
+      <c r="H68" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17">
+    <row r="69" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" s="17" t="s">
+      <c r="B69" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" t="s">
         <v>286</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" t="s">
         <v>287</v>
       </c>
-      <c r="E69" s="17" t="s">
+      <c r="E69" t="s">
         <v>194</v>
       </c>
-      <c r="F69" s="17">
-        <v>8</v>
-      </c>
-      <c r="H69" s="17" t="s">
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="H69" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17">
+    <row r="70" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" s="17" t="s">
+      <c r="B70" t="s">
+        <v>188</v>
+      </c>
+      <c r="C70" t="s">
         <v>288</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" t="s">
         <v>289</v>
       </c>
-      <c r="E70" s="17" t="s">
+      <c r="E70" t="s">
         <v>194</v>
       </c>
-      <c r="F70" s="17">
-        <v>8</v>
-      </c>
-      <c r="H70" s="17" t="s">
+      <c r="F70">
+        <v>8</v>
+      </c>
+      <c r="H70" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="17">
+    <row r="71" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" t="s">
         <v>188</v>
       </c>
       <c r="C71" t="s">
@@ -4195,11 +4266,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="17">
+    <row r="72" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" t="s">
         <v>188</v>
       </c>
       <c r="C72" t="s">
@@ -4215,11 +4286,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="17">
+    <row r="73" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" t="s">
         <v>188</v>
       </c>
       <c r="C73" t="s">
@@ -4235,11 +4306,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="17">
+    <row r="74" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" t="s">
         <v>188</v>
       </c>
       <c r="C74" t="s">
@@ -4255,31 +4326,31 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="17">
+    <row r="75" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C75" s="17" t="s">
+      <c r="B75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" t="s">
         <v>298</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" t="s">
         <v>299</v>
       </c>
-      <c r="E75" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F75" s="17">
+      <c r="E75" t="s">
+        <v>108</v>
+      </c>
+      <c r="F75">
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="17">
+    <row r="76" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" t="s">
         <v>188</v>
       </c>
       <c r="C76" t="s">
@@ -4294,15 +4365,15 @@
       <c r="F76">
         <v>8</v>
       </c>
-      <c r="H76" s="17" t="s">
+      <c r="H76" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="17">
+    <row r="77" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" t="s">
         <v>188</v>
       </c>
       <c r="C77" t="s">
@@ -4321,31 +4392,31 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="17">
+    <row r="78" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C78" s="17" t="s">
+      <c r="B78" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" t="s">
         <v>304</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" t="s">
         <v>305</v>
       </c>
-      <c r="E78" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F78" s="17">
+      <c r="E78" t="s">
+        <v>108</v>
+      </c>
+      <c r="F78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="17">
+    <row r="79" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B79" t="s">
         <v>188</v>
       </c>
       <c r="C79" t="s">
@@ -4360,15 +4431,15 @@
       <c r="F79">
         <v>8</v>
       </c>
-      <c r="H79" s="17" t="s">
+      <c r="H79" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="17">
+    <row r="80" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B80" t="s">
         <v>188</v>
       </c>
       <c r="C80" t="s">
@@ -4384,31 +4455,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="17">
+    <row r="81" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C81" s="17" t="s">
+      <c r="B81" t="s">
+        <v>188</v>
+      </c>
+      <c r="C81" t="s">
         <v>310</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D81" t="s">
         <v>311</v>
       </c>
-      <c r="E81" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F81" s="17">
+      <c r="E81" t="s">
+        <v>108</v>
+      </c>
+      <c r="F81">
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="17">
+    <row r="82" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" t="s">
         <v>188</v>
       </c>
       <c r="C82" t="s">
@@ -4424,11 +4495,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="17">
+    <row r="83" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" t="s">
         <v>188</v>
       </c>
       <c r="C83" t="s">
@@ -4444,11 +4515,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="17">
+    <row r="84" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" t="s">
         <v>188</v>
       </c>
       <c r="C84" t="s">
@@ -4464,11 +4535,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="17">
+    <row r="85" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B85" t="s">
         <v>188</v>
       </c>
       <c r="C85" t="s">
@@ -4484,11 +4555,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="17">
+    <row r="86" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="17" t="s">
+      <c r="B86" t="s">
         <v>188</v>
       </c>
       <c r="C86" t="s">
@@ -4504,11 +4575,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="17">
+    <row r="87" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" t="s">
         <v>188</v>
       </c>
       <c r="C87" t="s">
@@ -4524,31 +4595,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="17">
+    <row r="88" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C88" s="17" t="s">
+      <c r="B88" t="s">
+        <v>188</v>
+      </c>
+      <c r="C88" t="s">
         <v>324</v>
       </c>
-      <c r="D88" s="17" t="s">
+      <c r="D88" t="s">
         <v>325</v>
       </c>
-      <c r="E88" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F88" s="17">
+      <c r="E88" t="s">
+        <v>108</v>
+      </c>
+      <c r="F88">
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="17">
+    <row r="89" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B89" t="s">
         <v>188</v>
       </c>
       <c r="C89" t="s">
@@ -4564,11 +4635,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="17">
+    <row r="90" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="17" t="s">
+      <c r="B90" t="s">
         <v>188</v>
       </c>
       <c r="C90" t="s">
@@ -4584,686 +4655,686 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="17">
+    <row r="91" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C91" s="17" t="s">
+      <c r="B91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C91" t="s">
         <v>330</v>
       </c>
-      <c r="D91" s="17" t="s">
+      <c r="D91" t="s">
         <v>331</v>
       </c>
-      <c r="E91" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F91" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="17">
+      <c r="E91" t="s">
+        <v>108</v>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C92" s="17" t="s">
+      <c r="B92" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" t="s">
         <v>332</v>
       </c>
-      <c r="D92" s="17" t="s">
+      <c r="D92" t="s">
         <v>333</v>
       </c>
-      <c r="E92" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F92" s="17">
+      <c r="E92" t="s">
+        <v>108</v>
+      </c>
+      <c r="F92">
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="17">
+    <row r="93" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C93" s="17" t="s">
+      <c r="B93" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" t="s">
         <v>334</v>
       </c>
-      <c r="D93" s="17" t="s">
+      <c r="D93" t="s">
         <v>335</v>
       </c>
-      <c r="E93" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F93" s="17">
+      <c r="E93" t="s">
+        <v>108</v>
+      </c>
+      <c r="F93">
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="17">
+    <row r="94" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C94" s="17" t="s">
+      <c r="B94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" t="s">
         <v>336</v>
       </c>
-      <c r="D94" s="17" t="s">
+      <c r="D94" t="s">
         <v>337</v>
       </c>
-      <c r="E94" s="17" t="s">
+      <c r="E94" t="s">
         <v>194</v>
       </c>
-      <c r="F94" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="17">
+      <c r="F94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C95" s="17" t="s">
+      <c r="B95" t="s">
+        <v>188</v>
+      </c>
+      <c r="C95" t="s">
         <v>338</v>
       </c>
-      <c r="D95" s="17" t="s">
+      <c r="D95" t="s">
         <v>339</v>
       </c>
-      <c r="E95" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F95" s="17">
+      <c r="E95" t="s">
+        <v>108</v>
+      </c>
+      <c r="F95">
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="17">
+    <row r="96" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C96" s="17" t="s">
+      <c r="B96" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" t="s">
         <v>340</v>
       </c>
-      <c r="D96" s="17" t="s">
+      <c r="D96" t="s">
         <v>341</v>
       </c>
-      <c r="E96" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F96" s="17">
+      <c r="E96" t="s">
+        <v>108</v>
+      </c>
+      <c r="F96">
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="17">
+    <row r="97" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C97" s="17" t="s">
+      <c r="B97" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" t="s">
         <v>342</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="D97" t="s">
         <v>343</v>
       </c>
-      <c r="E97" s="17" t="s">
+      <c r="E97" t="s">
         <v>194</v>
       </c>
-      <c r="F97" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="17">
+      <c r="F97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C98" s="17" t="s">
+      <c r="B98" t="s">
+        <v>188</v>
+      </c>
+      <c r="C98" t="s">
         <v>53</v>
       </c>
-      <c r="D98" s="17" t="s">
+      <c r="D98" t="s">
         <v>87</v>
       </c>
-      <c r="E98" s="17" t="s">
+      <c r="E98" t="s">
         <v>194</v>
       </c>
-      <c r="F98" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="17">
+      <c r="F98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C99" s="17" t="s">
+      <c r="B99" t="s">
+        <v>188</v>
+      </c>
+      <c r="C99" t="s">
         <v>54</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="D99" t="s">
         <v>88</v>
       </c>
-      <c r="E99" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F99" s="17">
+      <c r="E99" t="s">
+        <v>108</v>
+      </c>
+      <c r="F99">
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="17">
+    <row r="100" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C100" s="17" t="s">
+      <c r="B100" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" t="s">
         <v>344</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D100" t="s">
         <v>345</v>
       </c>
-      <c r="E100" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F100" s="17">
+      <c r="E100" t="s">
+        <v>108</v>
+      </c>
+      <c r="F100">
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="17">
+    <row r="101" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C101" s="17" t="s">
+      <c r="B101" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101" t="s">
         <v>346</v>
       </c>
-      <c r="D101" s="17" t="s">
+      <c r="D101" t="s">
         <v>347</v>
       </c>
-      <c r="E101" s="17" t="s">
+      <c r="E101" t="s">
         <v>194</v>
       </c>
-      <c r="F101" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="17">
+      <c r="F101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C102" s="17" t="s">
+      <c r="B102" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102" t="s">
         <v>348</v>
       </c>
-      <c r="D102" s="17" t="s">
+      <c r="D102" t="s">
         <v>349</v>
       </c>
-      <c r="E102" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F102" s="17">
+      <c r="E102" t="s">
+        <v>108</v>
+      </c>
+      <c r="F102">
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="17">
+    <row r="103" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C103" s="17" t="s">
+      <c r="B103" t="s">
+        <v>188</v>
+      </c>
+      <c r="C103" t="s">
         <v>350</v>
       </c>
-      <c r="D103" s="17" t="s">
+      <c r="D103" t="s">
         <v>351</v>
       </c>
-      <c r="E103" s="17" t="s">
+      <c r="E103" t="s">
         <v>194</v>
       </c>
-      <c r="F103" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="17">
+      <c r="F103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C104" s="17" t="s">
+      <c r="B104" t="s">
+        <v>188</v>
+      </c>
+      <c r="C104" t="s">
         <v>352</v>
       </c>
-      <c r="D104" s="17" t="s">
+      <c r="D104" t="s">
         <v>353</v>
       </c>
-      <c r="E104" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F104" s="17">
+      <c r="E104" t="s">
+        <v>108</v>
+      </c>
+      <c r="F104">
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="17">
+    <row r="105" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C105" s="17" t="s">
+      <c r="B105" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" t="s">
         <v>354</v>
       </c>
-      <c r="D105" s="17" t="s">
+      <c r="D105" t="s">
         <v>355</v>
       </c>
-      <c r="E105" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F105" s="17">
+      <c r="E105" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105">
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="17">
+    <row r="106" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C106" s="17" t="s">
+      <c r="B106" t="s">
+        <v>188</v>
+      </c>
+      <c r="C106" t="s">
         <v>356</v>
       </c>
-      <c r="D106" s="17" t="s">
+      <c r="D106" t="s">
         <v>357</v>
       </c>
-      <c r="E106" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F106" s="17">
+      <c r="E106" t="s">
+        <v>108</v>
+      </c>
+      <c r="F106">
         <v>200</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="17">
+    <row r="107" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C107" s="17" t="s">
+      <c r="B107" t="s">
+        <v>188</v>
+      </c>
+      <c r="C107" t="s">
         <v>358</v>
       </c>
-      <c r="D107" s="17" t="s">
+      <c r="D107" t="s">
         <v>359</v>
       </c>
-      <c r="E107" s="17" t="s">
+      <c r="E107" t="s">
         <v>194</v>
       </c>
-      <c r="F107" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="17">
+      <c r="F107">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C108" s="17" t="s">
+      <c r="B108" t="s">
+        <v>188</v>
+      </c>
+      <c r="C108" t="s">
         <v>360</v>
       </c>
-      <c r="D108" s="17" t="s">
+      <c r="D108" t="s">
         <v>361</v>
       </c>
-      <c r="E108" s="17" t="s">
+      <c r="E108" t="s">
         <v>194</v>
       </c>
-      <c r="F108" s="17">
-        <v>8</v>
-      </c>
-      <c r="H108" s="17" t="s">
+      <c r="F108">
+        <v>8</v>
+      </c>
+      <c r="H108" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="17">
-        <v>108</v>
-      </c>
-      <c r="B109" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C109" s="17" t="s">
+    <row r="109" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>188</v>
+      </c>
+      <c r="C109" t="s">
         <v>362</v>
       </c>
-      <c r="D109" s="17" t="s">
+      <c r="D109" t="s">
         <v>363</v>
       </c>
-      <c r="E109" s="17" t="s">
+      <c r="E109" t="s">
         <v>194</v>
       </c>
-      <c r="F109" s="17">
-        <v>8</v>
-      </c>
-      <c r="H109" s="17" t="s">
+      <c r="F109">
+        <v>8</v>
+      </c>
+      <c r="H109" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="17">
+    <row r="110" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C110" s="17" t="s">
+      <c r="B110" t="s">
+        <v>188</v>
+      </c>
+      <c r="C110" t="s">
         <v>364</v>
       </c>
-      <c r="D110" s="17" t="s">
+      <c r="D110" t="s">
         <v>365</v>
       </c>
-      <c r="E110" s="17" t="s">
+      <c r="E110" t="s">
         <v>194</v>
       </c>
-      <c r="F110" s="17">
-        <v>8</v>
-      </c>
-      <c r="H110" s="17" t="s">
+      <c r="F110">
+        <v>8</v>
+      </c>
+      <c r="H110" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="17">
+    <row r="111" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C111" s="17" t="s">
+      <c r="B111" t="s">
+        <v>188</v>
+      </c>
+      <c r="C111" t="s">
         <v>366</v>
       </c>
-      <c r="D111" s="17" t="s">
+      <c r="D111" t="s">
         <v>367</v>
       </c>
-      <c r="E111" s="17" t="s">
+      <c r="E111" t="s">
         <v>194</v>
       </c>
-      <c r="F111" s="17">
-        <v>8</v>
-      </c>
-      <c r="H111" s="17" t="s">
+      <c r="F111">
+        <v>8</v>
+      </c>
+      <c r="H111" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="17">
+    <row r="112" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C112" s="17" t="s">
+      <c r="B112" t="s">
+        <v>188</v>
+      </c>
+      <c r="C112" t="s">
         <v>368</v>
       </c>
-      <c r="D112" s="17" t="s">
+      <c r="D112" t="s">
         <v>369</v>
       </c>
-      <c r="E112" s="17" t="s">
+      <c r="E112" t="s">
         <v>194</v>
       </c>
-      <c r="F112" s="17">
-        <v>8</v>
-      </c>
-      <c r="H112" s="17" t="s">
+      <c r="F112">
+        <v>8</v>
+      </c>
+      <c r="H112" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="17">
+    <row r="113" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C113" s="17" t="s">
+      <c r="B113" t="s">
+        <v>188</v>
+      </c>
+      <c r="C113" t="s">
         <v>370</v>
       </c>
-      <c r="D113" s="17" t="s">
+      <c r="D113" t="s">
         <v>371</v>
       </c>
-      <c r="E113" s="17" t="s">
+      <c r="E113" t="s">
         <v>194</v>
       </c>
-      <c r="F113" s="17">
-        <v>8</v>
-      </c>
-      <c r="H113" s="17" t="s">
+      <c r="F113">
+        <v>8</v>
+      </c>
+      <c r="H113" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="17">
+    <row r="114" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C114" s="17" t="s">
+      <c r="B114" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" t="s">
         <v>372</v>
       </c>
-      <c r="D114" s="17" t="s">
+      <c r="D114" t="s">
         <v>373</v>
       </c>
-      <c r="E114" s="17" t="s">
+      <c r="E114" t="s">
         <v>194</v>
       </c>
-      <c r="F114" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="17">
+      <c r="F114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C115" s="17" t="s">
+      <c r="B115" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" t="s">
         <v>374</v>
       </c>
-      <c r="D115" s="17" t="s">
+      <c r="D115" t="s">
         <v>375</v>
       </c>
-      <c r="E115" s="17" t="s">
+      <c r="E115" t="s">
         <v>194</v>
       </c>
-      <c r="F115" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="17">
+      <c r="F115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C116" s="17" t="s">
+      <c r="B116" t="s">
+        <v>188</v>
+      </c>
+      <c r="C116" t="s">
         <v>376</v>
       </c>
-      <c r="D116" s="17" t="s">
+      <c r="D116" t="s">
         <v>377</v>
       </c>
-      <c r="E116" s="17" t="s">
+      <c r="E116" t="s">
         <v>194</v>
       </c>
-      <c r="F116" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="17">
+      <c r="F116">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C117" s="17" t="s">
+      <c r="B117" t="s">
+        <v>188</v>
+      </c>
+      <c r="C117" t="s">
         <v>378</v>
       </c>
-      <c r="D117" s="17" t="s">
+      <c r="D117" t="s">
         <v>379</v>
       </c>
-      <c r="E117" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F117" s="17">
+      <c r="E117" t="s">
+        <v>108</v>
+      </c>
+      <c r="F117">
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="17">
+    <row r="118" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C118" s="17" t="s">
+      <c r="B118" t="s">
+        <v>188</v>
+      </c>
+      <c r="C118" t="s">
         <v>380</v>
       </c>
-      <c r="D118" s="17" t="s">
+      <c r="D118" t="s">
         <v>381</v>
       </c>
-      <c r="E118" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F118" s="17">
+      <c r="E118" t="s">
+        <v>108</v>
+      </c>
+      <c r="F118">
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="17">
+    <row r="119" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C119" s="17" t="s">
+      <c r="B119" t="s">
+        <v>188</v>
+      </c>
+      <c r="C119" t="s">
         <v>382</v>
       </c>
-      <c r="D119" s="17" t="s">
+      <c r="D119" t="s">
         <v>383</v>
       </c>
-      <c r="E119" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F119" s="17">
+      <c r="E119" t="s">
+        <v>108</v>
+      </c>
+      <c r="F119">
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="17">
+    <row r="120" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C120" s="17" t="s">
+      <c r="B120" t="s">
+        <v>188</v>
+      </c>
+      <c r="C120" t="s">
         <v>384</v>
       </c>
-      <c r="D120" s="17" t="s">
+      <c r="D120" t="s">
         <v>385</v>
       </c>
-      <c r="E120" s="17" t="s">
+      <c r="E120" t="s">
         <v>194</v>
       </c>
-      <c r="F120" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="17">
+      <c r="F120">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C121" s="17" t="s">
+      <c r="B121" t="s">
+        <v>188</v>
+      </c>
+      <c r="C121" t="s">
         <v>386</v>
       </c>
-      <c r="D121" s="17" t="s">
+      <c r="D121" t="s">
         <v>387</v>
       </c>
-      <c r="E121" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F121" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="17">
+      <c r="E121" t="s">
+        <v>108</v>
+      </c>
+      <c r="F121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C122" s="17" t="s">
+      <c r="B122" t="s">
+        <v>188</v>
+      </c>
+      <c r="C122" t="s">
         <v>388</v>
       </c>
-      <c r="D122" s="17" t="s">
+      <c r="D122" t="s">
         <v>389</v>
       </c>
-      <c r="E122" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F122" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="17">
+      <c r="E122" t="s">
+        <v>108</v>
+      </c>
+      <c r="F122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C123" s="17" t="s">
+      <c r="B123" t="s">
+        <v>188</v>
+      </c>
+      <c r="C123" t="s">
         <v>390</v>
       </c>
-      <c r="D123" s="17" t="s">
+      <c r="D123" t="s">
         <v>391</v>
       </c>
-      <c r="E123" s="17" t="s">
+      <c r="E123" t="s">
         <v>194</v>
       </c>
-      <c r="F123" s="17">
+      <c r="F123">
         <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A124" s="17">
+      <c r="A124" s="27">
         <v>1</v>
       </c>
       <c r="B124" s="16" t="s">
@@ -5292,7 +5363,7 @@
       <c r="P124" s="10"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" s="17">
+      <c r="A125" s="27">
         <v>2</v>
       </c>
       <c r="B125" s="16" t="s">
@@ -5321,7 +5392,7 @@
       <c r="P125" s="10"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" s="17">
+      <c r="A126" s="27">
         <v>3</v>
       </c>
       <c r="B126" s="16" t="s">
@@ -5350,7 +5421,7 @@
       <c r="P126" s="10"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" s="17">
+      <c r="A127" s="27">
         <v>4</v>
       </c>
       <c r="B127" s="16" t="s">
@@ -5381,7 +5452,7 @@
       <c r="P127" s="10"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A128" s="17">
+      <c r="A128" s="27">
         <v>5</v>
       </c>
       <c r="B128" s="16" t="s">
@@ -5410,7 +5481,7 @@
       <c r="P128" s="10"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A129" s="17">
+      <c r="A129" s="27">
         <v>6</v>
       </c>
       <c r="B129" s="16" t="s">
@@ -5441,7 +5512,7 @@
       <c r="P129" s="10"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A130" s="17">
+      <c r="A130" s="27">
         <v>7</v>
       </c>
       <c r="B130" s="16" t="s">
@@ -5472,7 +5543,7 @@
       <c r="P130" s="10"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A131" s="17">
+      <c r="A131" s="27">
         <v>8</v>
       </c>
       <c r="B131" s="16" t="s">
@@ -5501,7 +5572,7 @@
       <c r="P131" s="10"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A132" s="17">
+      <c r="A132" s="27">
         <v>9</v>
       </c>
       <c r="B132" s="16" t="s">
@@ -5530,7 +5601,7 @@
       <c r="P132" s="10"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A133" s="17">
+      <c r="A133" s="27">
         <v>10</v>
       </c>
       <c r="B133" s="16" t="s">
@@ -5559,7 +5630,7 @@
       <c r="P133" s="10"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A134" s="17">
+      <c r="A134" s="27">
         <v>11</v>
       </c>
       <c r="B134" s="16" t="s">
@@ -5588,7 +5659,7 @@
       <c r="P134" s="10"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="17">
+      <c r="A135" s="27">
         <v>12</v>
       </c>
       <c r="B135" s="16" t="s">
@@ -5617,7 +5688,7 @@
       <c r="P135" s="10"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="17">
+      <c r="A136" s="27">
         <v>13</v>
       </c>
       <c r="B136" s="16" t="s">
@@ -5646,7 +5717,7 @@
       <c r="P136" s="10"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="17">
+      <c r="A137" s="27">
         <v>14</v>
       </c>
       <c r="B137" s="16" t="s">
@@ -5675,7 +5746,7 @@
       <c r="P137" s="10"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A138" s="17">
+      <c r="A138" s="27">
         <v>15</v>
       </c>
       <c r="B138" s="16" t="s">
@@ -5704,7 +5775,7 @@
       <c r="P138" s="10"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A139" s="17">
+      <c r="A139" s="27">
         <v>16</v>
       </c>
       <c r="B139" s="16" t="s">
@@ -5733,7 +5804,7 @@
       <c r="P139" s="10"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="17">
+      <c r="A140" s="27">
         <v>17</v>
       </c>
       <c r="B140" s="16" t="s">
@@ -5762,7 +5833,7 @@
       <c r="P140" s="10"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A141" s="17">
+      <c r="A141" s="27">
         <v>18</v>
       </c>
       <c r="B141" s="16" t="s">
@@ -5791,7 +5862,7 @@
       <c r="P141" s="10"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A142" s="17">
+      <c r="A142" s="27">
         <v>19</v>
       </c>
       <c r="B142" s="16" t="s">
@@ -5820,7 +5891,7 @@
       <c r="P142" s="10"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A143" s="17">
+      <c r="A143" s="27">
         <v>20</v>
       </c>
       <c r="B143" s="16" t="s">
@@ -5849,7 +5920,7 @@
       <c r="P143" s="10"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A144" s="17">
+      <c r="A144" s="27">
         <v>21</v>
       </c>
       <c r="B144" s="16" t="s">
@@ -5880,7 +5951,7 @@
       <c r="P144" s="10"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A145" s="17">
+      <c r="A145" s="27">
         <v>22</v>
       </c>
       <c r="B145" s="16" t="s">
@@ -5911,7 +5982,7 @@
       <c r="P145" s="10"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A146" s="17">
+      <c r="A146" s="27">
         <v>25</v>
       </c>
       <c r="B146" s="16" t="s">
@@ -5940,7 +6011,7 @@
       <c r="P146" s="10"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="17">
+      <c r="A147" s="27">
         <v>26</v>
       </c>
       <c r="B147" s="16" t="s">
@@ -5969,7 +6040,7 @@
       <c r="P147" s="10"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="17">
+      <c r="A148" s="27">
         <v>27</v>
       </c>
       <c r="B148" s="16" t="s">
@@ -6000,7 +6071,7 @@
       <c r="P148" s="10"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A149" s="17">
+      <c r="A149" s="27">
         <v>28</v>
       </c>
       <c r="B149" s="16" t="s">
@@ -6029,7 +6100,7 @@
       <c r="P149" s="10"/>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="17">
+      <c r="A150" s="27">
         <v>29</v>
       </c>
       <c r="B150" s="16" t="s">
@@ -6058,7 +6129,7 @@
       <c r="P150" s="10"/>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="17">
+      <c r="A151" s="27">
         <v>30</v>
       </c>
       <c r="B151" s="16" t="s">
@@ -6087,7 +6158,7 @@
       <c r="P151" s="10"/>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A152" s="17">
+      <c r="A152" s="27">
         <v>31</v>
       </c>
       <c r="B152" s="16" t="s">
@@ -6116,7 +6187,7 @@
       <c r="P152" s="10"/>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A153" s="17">
+      <c r="A153" s="27">
         <v>32</v>
       </c>
       <c r="B153" s="16" t="s">
@@ -6145,7 +6216,7 @@
       <c r="P153" s="10"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A154" s="17">
+      <c r="A154" s="27">
         <v>33</v>
       </c>
       <c r="B154" s="16" t="s">
@@ -6174,7 +6245,7 @@
       <c r="P154" s="10"/>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A155" s="17">
+      <c r="A155" s="27">
         <v>36</v>
       </c>
       <c r="B155" s="16" t="s">
@@ -6194,7 +6265,7 @@
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A156" s="17">
+      <c r="A156" s="27">
         <v>37</v>
       </c>
       <c r="B156" s="16" t="s">
@@ -6214,7 +6285,7 @@
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A157" s="17">
+      <c r="A157" s="27">
         <v>40</v>
       </c>
       <c r="B157" s="16" t="s">
@@ -6234,7 +6305,7 @@
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A158" s="17">
+      <c r="A158" s="27">
         <v>41</v>
       </c>
       <c r="B158" s="16" t="s">
@@ -6254,7 +6325,7 @@
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A159" s="17">
+      <c r="A159" s="27">
         <v>45</v>
       </c>
       <c r="B159" s="16" t="s">
@@ -6274,7 +6345,7 @@
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A160" s="17">
+      <c r="A160" s="27">
         <v>46</v>
       </c>
       <c r="B160" s="16" t="s">
@@ -6294,7 +6365,7 @@
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="17">
+      <c r="A161" s="27">
         <v>47</v>
       </c>
       <c r="B161" s="16" t="s">
@@ -6314,7 +6385,7 @@
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="17">
+      <c r="A162" s="27">
         <v>48</v>
       </c>
       <c r="B162" s="16" t="s">
@@ -6334,7 +6405,7 @@
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="17">
+      <c r="A163" s="27">
         <v>49</v>
       </c>
       <c r="B163" s="16" t="s">
@@ -6357,7 +6428,7 @@
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="17">
+      <c r="A164" s="27">
         <v>50</v>
       </c>
       <c r="B164" s="16" t="s">
@@ -6377,7 +6448,7 @@
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="17">
+      <c r="A165" s="27">
         <v>51</v>
       </c>
       <c r="B165" s="16" t="s">
@@ -6400,7 +6471,7 @@
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A166" s="17">
+      <c r="A166" s="27">
         <v>54</v>
       </c>
       <c r="B166" s="16" t="s">
@@ -6423,7 +6494,7 @@
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="17">
+      <c r="A167" s="27">
         <v>55</v>
       </c>
       <c r="B167" s="16" t="s">
@@ -6446,7 +6517,7 @@
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="17">
+      <c r="A168" s="27">
         <v>56</v>
       </c>
       <c r="B168" s="16" t="s">
@@ -6466,7 +6537,7 @@
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="17">
+      <c r="A169" s="27">
         <v>58</v>
       </c>
       <c r="B169" s="16" t="s">
@@ -6486,7 +6557,7 @@
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="17">
+      <c r="A170" s="27">
         <v>59</v>
       </c>
       <c r="B170" s="16" t="s">
@@ -6506,7 +6577,7 @@
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="17">
+      <c r="A171" s="27">
         <v>60</v>
       </c>
       <c r="B171" s="16" t="s">
@@ -6526,7 +6597,7 @@
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="17">
+      <c r="A172" s="27">
         <v>61</v>
       </c>
       <c r="B172" s="16" t="s">
@@ -6546,7 +6617,7 @@
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="17">
+      <c r="A173" s="27">
         <v>62</v>
       </c>
       <c r="B173" s="16" t="s">
@@ -6566,7 +6637,7 @@
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="17">
+      <c r="A174" s="27">
         <v>64</v>
       </c>
       <c r="B174" s="16" t="s">
@@ -6589,7 +6660,7 @@
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A175" s="17">
+      <c r="A175" s="27">
         <v>65</v>
       </c>
       <c r="B175" s="16" t="s">
@@ -6612,7 +6683,7 @@
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="17">
+      <c r="A176" s="27">
         <v>66</v>
       </c>
       <c r="B176" s="16" t="s">
@@ -6635,7 +6706,7 @@
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="17">
+      <c r="A177" s="27">
         <v>67</v>
       </c>
       <c r="B177" s="16" t="s">
@@ -6658,7 +6729,7 @@
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A178" s="17">
+      <c r="A178" s="27">
         <v>70</v>
       </c>
       <c r="B178" s="16" t="s">
@@ -6681,7 +6752,7 @@
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="17">
+      <c r="A179" s="27">
         <v>71</v>
       </c>
       <c r="B179" s="16" t="s">
@@ -6704,7 +6775,7 @@
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="17">
+      <c r="A180" s="27">
         <v>72</v>
       </c>
       <c r="B180" s="16" t="s">
@@ -6724,7 +6795,7 @@
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A181" s="17">
+      <c r="A181" s="27">
         <v>73</v>
       </c>
       <c r="B181" s="16" t="s">
@@ -6744,7 +6815,7 @@
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A182" s="17">
+      <c r="A182" s="27">
         <v>74</v>
       </c>
       <c r="B182" s="16" t="s">
@@ -6767,7 +6838,7 @@
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="17">
+      <c r="A183" s="27">
         <v>75</v>
       </c>
       <c r="B183" s="16" t="s">
@@ -6790,7 +6861,7 @@
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A184" s="17">
+      <c r="A184" s="27">
         <v>76</v>
       </c>
       <c r="B184" s="16" t="s">
@@ -6813,7 +6884,7 @@
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A185" s="17">
+      <c r="A185" s="27">
         <v>77</v>
       </c>
       <c r="B185" s="16" t="s">
@@ -6833,7 +6904,7 @@
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="17">
+      <c r="A186" s="27">
         <v>78</v>
       </c>
       <c r="B186" s="16" t="s">
@@ -6853,7 +6924,7 @@
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A187" s="17">
+      <c r="A187" s="27">
         <v>79</v>
       </c>
       <c r="B187" s="16" t="s">
@@ -6873,7 +6944,7 @@
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A188" s="17">
+      <c r="A188" s="27">
         <v>80</v>
       </c>
       <c r="B188" s="16" t="s">
@@ -6893,7 +6964,7 @@
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A189" s="17">
+      <c r="A189" s="27">
         <v>81</v>
       </c>
       <c r="B189" s="16" t="s">
@@ -6913,7 +6984,7 @@
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A190" s="17">
+      <c r="A190" s="27">
         <v>82</v>
       </c>
       <c r="B190" s="16" t="s">
@@ -6933,128 +7004,1161 @@
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A191" s="17"/>
+      <c r="A191" s="27">
+        <v>1</v>
+      </c>
+      <c r="B191" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C191" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D191" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E191" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F191" s="15">
+        <v>20</v>
+      </c>
+      <c r="I191" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" s="17"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="17"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="17"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="17"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="17"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="17"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="17"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="17"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="17"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="17"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="17"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="17"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="17"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="17"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="17"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="17"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="17"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="17"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="17"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="17"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="17"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="17"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="17"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="17"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="17"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="17"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="17"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="17"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="17"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="17"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="17"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="17"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="17"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="17"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="17"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="17"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="17"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="17"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="17"/>
+      <c r="A192" s="27">
+        <v>2</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C192" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="D192" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="E192" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F192" s="15">
+        <v>8</v>
+      </c>
+      <c r="I192" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="J192" s="16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="27">
+        <v>3</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E193" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F193" s="15">
+        <v>10</v>
+      </c>
+      <c r="I193" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="27">
+        <v>4</v>
+      </c>
+      <c r="B194" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C194" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D194" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="E194" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F194" s="15">
+        <v>8</v>
+      </c>
+      <c r="I194" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="27">
+        <v>5</v>
+      </c>
+      <c r="B195" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C195" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E195" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F195" s="15">
+        <v>40</v>
+      </c>
+      <c r="I195" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="27">
+        <v>6</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C196" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E196" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F196" s="15">
+        <v>8</v>
+      </c>
+      <c r="I196" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="27">
+        <v>7</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C197" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="E197" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F197" s="15">
+        <v>20</v>
+      </c>
+      <c r="I197" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="27">
+        <v>8</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C198" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="D198" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="E198" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F198" s="15">
+        <v>8</v>
+      </c>
+      <c r="I198" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="27">
+        <v>9</v>
+      </c>
+      <c r="B199" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C199" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="D199" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="E199" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="F199" s="15">
+        <v>8</v>
+      </c>
+      <c r="I199" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="27">
+        <v>10</v>
+      </c>
+      <c r="B200" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="D200" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="E200" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F200" s="15">
+        <v>8</v>
+      </c>
+      <c r="I200" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="27">
+        <v>11</v>
+      </c>
+      <c r="B201" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="D201" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="E201" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="F201" s="15">
+        <v>8</v>
+      </c>
+      <c r="I201" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="27">
+        <v>12</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="D202" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="E202" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F202" s="15">
+        <v>8</v>
+      </c>
+      <c r="I202" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="27">
+        <v>13</v>
+      </c>
+      <c r="B203" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="D203" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="E203" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="F203" s="15">
+        <v>8</v>
+      </c>
+      <c r="I203" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="27">
+        <v>14</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="D204" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="E204" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F204" s="15">
+        <v>8</v>
+      </c>
+      <c r="I204" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="27">
+        <v>15</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C205" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="D205" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="E205" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="F205" s="15">
+        <v>8</v>
+      </c>
+      <c r="I205" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="27">
+        <v>16</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="D206" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="E206" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F206" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="I206" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="27">
+        <v>17</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D207" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E207" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F207" s="15">
+        <v>8</v>
+      </c>
+      <c r="I207" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="27">
+        <v>18</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C208" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D208" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E208" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F208" s="15">
+        <v>1</v>
+      </c>
+      <c r="I208" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J208" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="27">
+        <v>19</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C209" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="D209" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="E209" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F209" s="15">
+        <v>8</v>
+      </c>
+      <c r="I209" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J209" s="15" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="27">
+        <v>20</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C210" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E210" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F210" s="15">
+        <v>40</v>
+      </c>
+      <c r="I210" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J210" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="27">
+        <v>21</v>
+      </c>
+      <c r="B211" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C211" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="D211" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="E211" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F211" s="15">
+        <v>8</v>
+      </c>
+      <c r="I211" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J211" s="15" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="27">
+        <v>22</v>
+      </c>
+      <c r="B212" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C212" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D212" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="E212" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F212" s="15">
+        <v>40</v>
+      </c>
+      <c r="I212" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J212" s="15" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="27">
+        <v>25</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C213" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="D213" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="E213" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F213" s="15">
+        <v>8</v>
+      </c>
+      <c r="I213" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J213" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="27">
+        <v>26</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C214" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="D214" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="E214" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F214" s="15">
+        <v>8</v>
+      </c>
+      <c r="I214" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J214" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="27">
+        <v>27</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C215" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="D215" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="E215" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F215" s="15">
+        <v>40</v>
+      </c>
+      <c r="I215" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J215" s="15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="27">
+        <v>28</v>
+      </c>
+      <c r="B216" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C216" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="D216" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="E216" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F216" s="15">
+        <v>8</v>
+      </c>
+      <c r="I216" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J216" s="15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="27">
+        <v>29</v>
+      </c>
+      <c r="B217" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C217" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="D217" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="E217" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F217" s="15">
+        <v>8</v>
+      </c>
+      <c r="I217" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J217" s="15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="27">
+        <v>30</v>
+      </c>
+      <c r="B218" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C218" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="D218" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E218" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F218" s="15">
+        <v>40</v>
+      </c>
+      <c r="I218" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A219" s="27">
+        <v>31</v>
+      </c>
+      <c r="B219" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C219" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="D219" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="E219" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F219" s="15">
+        <v>8</v>
+      </c>
+      <c r="I219" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J219" s="15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="27">
+        <v>32</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C220" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="D220" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="E220" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F220" s="15">
+        <v>40</v>
+      </c>
+      <c r="I220" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="27">
+        <v>33</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C221" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="D221" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="E221" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F221" s="15">
+        <v>8</v>
+      </c>
+      <c r="I221" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J221" s="15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="27">
+        <v>36</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C222" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D222" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E222" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F222" s="15">
+        <v>3</v>
+      </c>
+      <c r="I222" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J222" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="27">
+        <v>37</v>
+      </c>
+      <c r="B223" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C223" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="D223" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="E223" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F223" s="15">
+        <v>8</v>
+      </c>
+      <c r="I223" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J223" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="27">
+        <v>40</v>
+      </c>
+      <c r="B224" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C224" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="D224" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="E224" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F224" s="15">
+        <v>40</v>
+      </c>
+      <c r="I224" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J224" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225" s="27">
+        <v>41</v>
+      </c>
+      <c r="B225" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C225" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="D225" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="E225" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="F225" s="15">
+        <v>8</v>
+      </c>
+      <c r="I225" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226" s="27">
+        <v>45</v>
+      </c>
+      <c r="B226" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C226" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="D226" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="E226" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="F226" s="15">
+        <v>8</v>
+      </c>
+      <c r="I226" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227" s="27">
+        <v>46</v>
+      </c>
+      <c r="B227" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C227" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="D227" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="E227" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="F227" s="15">
+        <v>8</v>
+      </c>
+      <c r="I227" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228" s="27">
+        <v>47</v>
+      </c>
+      <c r="B228" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C228" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="D228" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="E228" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="F228" s="15">
+        <v>8</v>
+      </c>
+      <c r="I228" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="27">
+        <v>48</v>
+      </c>
+      <c r="B229" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C229" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D229" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="E229" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="F229" s="15">
+        <v>8</v>
+      </c>
+      <c r="I229" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="27">
+        <v>49</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C230" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="D230" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="E230" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="F230" s="15">
+        <v>8</v>
+      </c>
+      <c r="I230" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="27">
+        <v>50</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="D231" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="E231" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="F231" s="15">
+        <v>8</v>
+      </c>
+      <c r="I231" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A232" s="27">
+        <v>51</v>
+      </c>
+      <c r="B232" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C232" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="D232" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="E232" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="F232" s="15">
+        <v>8</v>
+      </c>
+      <c r="I232" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233" s="27">
+        <v>54</v>
+      </c>
+      <c r="B233" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C233" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="D233" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="E233" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="F233" s="15">
+        <v>8</v>
+      </c>
+      <c r="I233" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" s="27">
+        <v>55</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C234" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="D234" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="E234" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="F234" s="15">
+        <v>8</v>
+      </c>
+      <c r="I234" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A235" s="27">
+        <v>56</v>
+      </c>
+      <c r="B235" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C235" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="D235" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="E235" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F235" s="15">
+        <v>8</v>
+      </c>
+      <c r="I235" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A236" s="27"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A237" s="27"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A238" s="27"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A239" s="27"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="27"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="27"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="27"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="27"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="27"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="27"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="27"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="27"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="27"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="27"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="27"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="27"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="27"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="27"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="27"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="27"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="27"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P190" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:P235" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K737373 Public</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -7138,6 +8242,9 @@
   </sheetData>
   <autoFilter ref="A1:P1" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K737373 Public</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -7180,6 +8287,9 @@
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K737373 Public</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -7188,10 +8298,10 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7350,20 +8460,20 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>518</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>404</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>512</v>
       </c>
       <c r="G7" s="6"/>
@@ -7372,20 +8482,20 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>518</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>404</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>514</v>
       </c>
       <c r="G8" s="6"/>
@@ -7394,20 +8504,20 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>518</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>404</v>
       </c>
       <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>511</v>
       </c>
       <c r="G9" s="6"/>
@@ -7416,20 +8526,20 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>518</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>404</v>
       </c>
       <c r="E10" s="3">
         <v>4</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>510</v>
       </c>
       <c r="G10" s="6"/>
@@ -7539,14 +8649,14 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>512</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="21"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -7563,14 +8673,14 @@
       <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>514</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="20"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -7587,14 +8697,14 @@
       <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="20" t="s">
         <v>511</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="21"/>
+      <c r="I17" s="20"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -7611,14 +8721,14 @@
       <c r="E18" s="2">
         <v>4</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>510</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I18" s="22"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -7642,7 +8752,7 @@
       <c r="H19" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="21"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -7666,7 +8776,7 @@
       <c r="H20" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I20" s="21"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -7690,7 +8800,7 @@
       <c r="H21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="21"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -7714,7 +8824,7 @@
       <c r="H22" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I22" s="22"/>
+      <c r="I22" s="21"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -7775,11 +8885,11 @@
       <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="22" t="s">
         <v>511</v>
       </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="22" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7797,7 +8907,7 @@
       <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="23" t="s">
         <v>185</v>
       </c>
       <c r="G26" s="5"/>
@@ -7819,7 +8929,7 @@
       <c r="E27" s="3">
         <v>2</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="23" t="s">
         <v>157</v>
       </c>
       <c r="G27" s="5"/>
@@ -7827,33 +8937,33 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="25">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="24">
         <v>3</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24" t="s">
+      <c r="G28" s="23"/>
+      <c r="H28" s="23" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>484</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -7876,10 +8986,10 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>484</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>484</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -7902,20 +9012,20 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>486</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>404</v>
       </c>
       <c r="E31" s="3">
         <v>1</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="22" t="s">
         <v>514</v>
       </c>
       <c r="G31" s="6"/>
@@ -7924,20 +9034,20 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="22" t="s">
         <v>486</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>404</v>
       </c>
       <c r="E32" s="3">
         <v>2</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="22" t="s">
         <v>511</v>
       </c>
       <c r="G32" s="6"/>
@@ -7990,7 +9100,7 @@
       <c r="F34" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="25" t="s">
         <v>165</v>
       </c>
       <c r="H34" s="6" t="s">
@@ -8313,7 +9423,7 @@
       <c r="E47" s="14">
         <v>1</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="19" t="s">
         <v>511</v>
       </c>
       <c r="G47" s="15" t="s">
@@ -8339,7 +9449,7 @@
       <c r="E48" s="14">
         <v>2</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="19" t="s">
         <v>510</v>
       </c>
       <c r="G48" s="15" t="s">
@@ -8365,7 +9475,7 @@
       <c r="E49" s="14">
         <v>3</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="19" t="s">
         <v>515</v>
       </c>
       <c r="G49" s="15" t="s">
@@ -8391,7 +9501,7 @@
       <c r="E50" s="14">
         <v>4</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="19" t="s">
         <v>516</v>
       </c>
       <c r="G50" s="15" t="s">
@@ -8492,7 +9602,7 @@
       <c r="E54" s="14">
         <v>1</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F54" s="19" t="s">
         <v>510</v>
       </c>
       <c r="H54" s="15" t="s">
@@ -8512,7 +9622,7 @@
       <c r="E55" s="14">
         <v>2</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F55" s="19" t="s">
         <v>511</v>
       </c>
       <c r="H55" s="15" t="s">
@@ -8532,7 +9642,7 @@
       <c r="E56" s="14">
         <v>3</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="F56" s="19" t="s">
         <v>512</v>
       </c>
       <c r="H56" s="15" t="s">
@@ -8865,6 +9975,9 @@
   <autoFilter ref="A1:H59" xr:uid="{96482083-CDB9-4891-8BB3-78DEBC79034F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K737373 Public</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -8876,7 +9989,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8922,6 +10035,9 @@
   <autoFilter ref="A1:E1" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K737373 Public</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -8976,6 +10092,9 @@
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K737373 Public</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -10639,5 +11758,8 @@
   </sheetData>
   <autoFilter ref="A1:D272" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Aptos"&amp;10&amp;K737373 Public</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/metadata/pk_spec.xlsx
+++ b/metadata/pk_spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff.dickinson\Documents\GitHub\examples\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F740EE8-210D-40A4-8735-52E2CA73AFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0C8541-8641-426F-8D37-58C16A89F5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Documents!$A$1:$C$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Methods!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ValueLevel!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$P$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$P$237</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WhereClauses!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="576">
   <si>
     <t>Attribute</t>
   </si>
@@ -1777,6 +1777,18 @@
   </si>
   <si>
     <t>STUDYID, USUBJID</t>
+  </si>
+  <si>
+    <t>AUCSS</t>
+  </si>
+  <si>
+    <t>Steady-State AUC (ug*h/mL)</t>
+  </si>
+  <si>
+    <t>CMAXSS</t>
+  </si>
+  <si>
+    <t>Steady-State Cmax (ug/mL)</t>
   </si>
 </sst>
 </file>
@@ -2589,13 +2601,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P257"/>
+  <dimension ref="A1:P259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D202" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D229" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N216" sqref="N216"/>
+      <selection pane="bottomRight" activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7004,7 +7016,7 @@
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A191" s="27">
+      <c r="A191">
         <v>1</v>
       </c>
       <c r="B191" s="15" t="s">
@@ -7027,7 +7039,7 @@
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" s="27">
+      <c r="A192">
         <v>2</v>
       </c>
       <c r="B192" s="15" t="s">
@@ -7052,8 +7064,8 @@
         <v>402</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" s="27">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
         <v>3</v>
       </c>
       <c r="B193" s="15" t="s">
@@ -7075,8 +7087,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="27">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>4</v>
       </c>
       <c r="B194" s="15" t="s">
@@ -7098,8 +7110,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="27">
+    <row r="195" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195">
         <v>5</v>
       </c>
       <c r="B195" s="15" t="s">
@@ -7121,8 +7133,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="27">
+    <row r="196" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196">
         <v>6</v>
       </c>
       <c r="B196" s="15" t="s">
@@ -7144,8 +7156,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="27">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197">
         <v>7</v>
       </c>
       <c r="B197" s="15" t="s">
@@ -7167,8 +7179,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="27">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198">
         <v>8</v>
       </c>
       <c r="B198" s="15" t="s">
@@ -7190,8 +7202,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="27">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199">
         <v>9</v>
       </c>
       <c r="B199" s="15" t="s">
@@ -7213,8 +7225,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="27">
+    <row r="200" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200">
         <v>10</v>
       </c>
       <c r="B200" s="15" t="s">
@@ -7236,8 +7248,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" s="27">
+    <row r="201" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>11</v>
       </c>
       <c r="B201" s="15" t="s">
@@ -7259,8 +7271,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202" s="27">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202">
         <v>12</v>
       </c>
       <c r="B202" s="15" t="s">
@@ -7282,8 +7294,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="27">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203">
         <v>13</v>
       </c>
       <c r="B203" s="15" t="s">
@@ -7305,8 +7317,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="27">
+    <row r="204" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204">
         <v>14</v>
       </c>
       <c r="B204" s="15" t="s">
@@ -7328,8 +7340,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="27">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205">
         <v>15</v>
       </c>
       <c r="B205" s="15" t="s">
@@ -7351,8 +7363,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="27">
+    <row r="206" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206">
         <v>16</v>
       </c>
       <c r="B206" s="15" t="s">
@@ -7374,67 +7386,64 @@
         <v>50</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207" s="27">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207">
         <v>17</v>
       </c>
-      <c r="B207" s="15" t="s">
+      <c r="B207" t="s">
         <v>527</v>
       </c>
-      <c r="C207" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D207" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E207" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="F207" s="15">
+      <c r="C207" t="s">
+        <v>572</v>
+      </c>
+      <c r="D207" t="s">
+        <v>573</v>
+      </c>
+      <c r="E207" t="s">
+        <v>544</v>
+      </c>
+      <c r="F207">
         <v>8</v>
       </c>
       <c r="I207" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="27">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
         <v>18</v>
       </c>
-      <c r="B208" s="15" t="s">
+      <c r="B208" t="s">
         <v>527</v>
       </c>
-      <c r="C208" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D208" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E208" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F208" s="15">
-        <v>1</v>
+      <c r="C208" t="s">
+        <v>574</v>
+      </c>
+      <c r="D208" t="s">
+        <v>575</v>
+      </c>
+      <c r="E208" t="s">
+        <v>544</v>
+      </c>
+      <c r="F208">
+        <v>8</v>
       </c>
       <c r="I208" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J208" s="15" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A209" s="27">
+      <c r="A209">
         <v>19</v>
       </c>
       <c r="B209" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>480</v>
+        <v>65</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>481</v>
+        <v>98</v>
       </c>
       <c r="E209" s="15" t="s">
         <v>528</v>
@@ -7445,48 +7454,45 @@
       <c r="I209" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J209" s="15" t="s">
-        <v>480</v>
-      </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="27">
+      <c r="A210">
         <v>20</v>
       </c>
       <c r="B210" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C210" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D210" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E210" s="15" t="s">
         <v>108</v>
       </c>
       <c r="F210" s="15">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I210" s="15" t="s">
         <v>50</v>
       </c>
       <c r="J210" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A211" s="27">
+      <c r="A211">
         <v>21</v>
       </c>
       <c r="B211" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C211" s="15" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D211" s="15" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E211" s="15" t="s">
         <v>528</v>
@@ -7498,21 +7504,21 @@
         <v>50</v>
       </c>
       <c r="J211" s="15" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A212" s="27">
+      <c r="A212">
         <v>22</v>
       </c>
       <c r="B212" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C212" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D212" s="15" t="s">
-        <v>531</v>
+        <v>101</v>
       </c>
       <c r="E212" s="15" t="s">
         <v>108</v>
@@ -7524,21 +7530,21 @@
         <v>50</v>
       </c>
       <c r="J212" s="15" t="s">
-        <v>484</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A213" s="27">
-        <v>25</v>
+      <c r="A213">
+        <v>23</v>
       </c>
       <c r="B213" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C213" s="15" t="s">
-        <v>532</v>
+        <v>482</v>
       </c>
       <c r="D213" s="15" t="s">
-        <v>533</v>
+        <v>483</v>
       </c>
       <c r="E213" s="15" t="s">
         <v>528</v>
@@ -7549,74 +7555,74 @@
       <c r="I213" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J213" t="s">
-        <v>486</v>
+      <c r="J213" s="15" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A214" s="27">
-        <v>26</v>
+      <c r="A214">
+        <v>24</v>
       </c>
       <c r="B214" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>468</v>
+        <v>69</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E214" s="15" t="s">
-        <v>528</v>
+        <v>108</v>
       </c>
       <c r="F214" s="15">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I214" s="15" t="s">
         <v>50</v>
       </c>
       <c r="J214" s="15" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A215" s="27">
-        <v>27</v>
+      <c r="A215">
+        <v>25</v>
       </c>
       <c r="B215" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="D215" s="15" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E215" s="15" t="s">
-        <v>108</v>
+        <v>528</v>
       </c>
       <c r="F215" s="15">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="I215" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J215" s="15" t="s">
-        <v>470</v>
+      <c r="J215" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A216" s="27">
-        <v>28</v>
+      <c r="A216">
+        <v>26</v>
       </c>
       <c r="B216" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>518</v>
+        <v>468</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E216" s="15" t="s">
         <v>528</v>
@@ -7628,70 +7634,73 @@
         <v>50</v>
       </c>
       <c r="J216" s="15" t="s">
-        <v>518</v>
+        <v>468</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A217" s="27">
-        <v>29</v>
+      <c r="A217">
+        <v>27</v>
       </c>
       <c r="B217" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>537</v>
+        <v>470</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E217" s="15" t="s">
-        <v>528</v>
+        <v>108</v>
       </c>
       <c r="F217" s="15">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I217" s="15" t="s">
         <v>50</v>
       </c>
       <c r="J217" s="15" t="s">
-        <v>518</v>
+        <v>470</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A218" s="27">
-        <v>30</v>
+      <c r="A218">
+        <v>28</v>
       </c>
       <c r="B218" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>465</v>
+        <v>518</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>86</v>
+        <v>536</v>
       </c>
       <c r="E218" s="15" t="s">
-        <v>108</v>
+        <v>528</v>
       </c>
       <c r="F218" s="15">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="I218" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="27">
-        <v>31</v>
+      <c r="J218" s="15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>29</v>
       </c>
       <c r="B219" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>466</v>
+        <v>537</v>
       </c>
       <c r="D219" s="15" t="s">
-        <v>467</v>
+        <v>538</v>
       </c>
       <c r="E219" s="15" t="s">
         <v>528</v>
@@ -7703,21 +7712,21 @@
         <v>50</v>
       </c>
       <c r="J219" s="15" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A220" s="27">
-        <v>32</v>
+      <c r="A220">
+        <v>30</v>
       </c>
       <c r="B220" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D220" s="15" t="s">
-        <v>539</v>
+        <v>86</v>
       </c>
       <c r="E220" s="15" t="s">
         <v>108</v>
@@ -7729,18 +7738,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A221" s="27">
-        <v>33</v>
+    <row r="221" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>31</v>
       </c>
       <c r="B221" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D221" s="15" t="s">
-        <v>540</v>
+        <v>467</v>
       </c>
       <c r="E221" s="15" t="s">
         <v>528</v>
@@ -7752,47 +7761,44 @@
         <v>50</v>
       </c>
       <c r="J221" s="15" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A222" s="27">
-        <v>36</v>
+      <c r="A222">
+        <v>32</v>
       </c>
       <c r="B222" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>74</v>
+        <v>461</v>
       </c>
       <c r="D222" s="15" t="s">
-        <v>106</v>
+        <v>539</v>
       </c>
       <c r="E222" s="15" t="s">
         <v>108</v>
       </c>
       <c r="F222" s="15">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="I222" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J222" s="15" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A223" s="27">
-        <v>37</v>
+      <c r="A223">
+        <v>33</v>
       </c>
       <c r="B223" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="D223" s="15" t="s">
-        <v>493</v>
+        <v>540</v>
       </c>
       <c r="E223" s="15" t="s">
         <v>528</v>
@@ -7804,50 +7810,50 @@
         <v>50</v>
       </c>
       <c r="J223" s="15" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A224" s="27">
-        <v>40</v>
+      <c r="A224">
+        <v>34</v>
       </c>
       <c r="B224" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>490</v>
+        <v>74</v>
       </c>
       <c r="D224" s="15" t="s">
-        <v>541</v>
+        <v>106</v>
       </c>
       <c r="E224" s="15" t="s">
         <v>108</v>
       </c>
       <c r="F224" s="15">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="I224" s="15" t="s">
         <v>50</v>
       </c>
       <c r="J224" s="15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="27">
-        <v>41</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>35</v>
       </c>
       <c r="B225" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>372</v>
+        <v>492</v>
       </c>
       <c r="D225" s="15" t="s">
-        <v>560</v>
+        <v>493</v>
       </c>
       <c r="E225" s="15" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="F225" s="15">
         <v>8</v>
@@ -7855,42 +7861,48 @@
       <c r="I225" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="27">
-        <v>45</v>
+      <c r="J225" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>36</v>
       </c>
       <c r="B226" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>374</v>
+        <v>490</v>
       </c>
       <c r="D226" s="15" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="E226" s="15" t="s">
-        <v>544</v>
+        <v>108</v>
       </c>
       <c r="F226" s="15">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="I226" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" s="27">
-        <v>46</v>
+      <c r="J226" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>37</v>
       </c>
       <c r="B227" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D227" s="15" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E227" s="15" t="s">
         <v>544</v>
@@ -7902,18 +7914,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="27">
-        <v>47</v>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>38</v>
       </c>
       <c r="B228" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>477</v>
+        <v>374</v>
       </c>
       <c r="D228" s="15" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E228" s="15" t="s">
         <v>544</v>
@@ -7925,18 +7937,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="27">
-        <v>48</v>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>39</v>
       </c>
       <c r="B229" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>494</v>
+        <v>376</v>
       </c>
       <c r="D229" s="15" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E229" s="15" t="s">
         <v>544</v>
@@ -7948,18 +7960,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A230" s="27">
-        <v>49</v>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>40</v>
       </c>
       <c r="B230" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="D230" s="15" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E230" s="15" t="s">
         <v>544</v>
@@ -7971,18 +7983,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="27">
-        <v>50</v>
+    <row r="231" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>41</v>
       </c>
       <c r="B231" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C231" s="15" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D231" s="15" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E231" s="15" t="s">
         <v>544</v>
@@ -7994,18 +8006,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="27">
-        <v>51</v>
+    <row r="232" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>42</v>
       </c>
       <c r="B232" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C232" s="15" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E232" s="15" t="s">
         <v>544</v>
@@ -8017,18 +8029,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="27">
-        <v>54</v>
+    <row r="233" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>43</v>
       </c>
       <c r="B233" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E233" s="15" t="s">
         <v>544</v>
@@ -8040,18 +8052,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="27">
-        <v>55</v>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>44</v>
       </c>
       <c r="B234" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E234" s="15" t="s">
         <v>544</v>
@@ -8063,21 +8075,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A235" s="27">
-        <v>56</v>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>45</v>
       </c>
       <c r="B235" s="15" t="s">
         <v>527</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>384</v>
+        <v>502</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>385</v>
+        <v>568</v>
       </c>
       <c r="E235" s="15" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
       <c r="F235" s="15">
         <v>8</v>
@@ -8086,44 +8098,84 @@
         <v>50</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" s="27"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="27"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="27"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" s="27"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="27"/>
+    <row r="236" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>46</v>
+      </c>
+      <c r="B236" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C236" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="D236" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="E236" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="F236" s="15">
+        <v>8</v>
+      </c>
+      <c r="I236" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>47</v>
+      </c>
+      <c r="B237" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="C237" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="D237" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="E237" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="F237" s="15">
+        <v>8</v>
+      </c>
+      <c r="I237" s="15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="27"/>
+      <c r="A241"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="27"/>
+      <c r="A242"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="27"/>
+      <c r="A243"/>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="27"/>
+      <c r="A244"/>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="27"/>
+      <c r="A245"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="27"/>
+      <c r="A246"/>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="27"/>
+      <c r="A247"/>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="27"/>
+      <c r="A248"/>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="27"/>
@@ -8152,8 +8204,14 @@
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="27"/>
     </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="27"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="27"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P235" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:P237" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
